--- a/website/static/saln/report_on_saln.xlsx
+++ b/website/static/saln/report_on_saln.xlsx
@@ -7,31 +7,53 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="OFFICERS-AND-EMPLOYEES" sheetId="1" r:id="rId1"/>
+    <sheet name="PERM-CAS-COT" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">'OFFICERS-AND-EMPLOYEES'!$1:$1</definedName>
-  </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="49">
-  <si>
-    <t>OFFICERS AND EMPLOYEES' SUBMISSION OF SALN</t>
-  </si>
-  <si>
-    <t>BUEREAU / ATTACHED AGENCY / DELIVERY UNIT</t>
-  </si>
-  <si>
-    <t>Total Number of Employees Covered by RA6713</t>
-  </si>
-  <si>
-    <t>Number of Employees Filed SALN</t>
-  </si>
-  <si>
-    <t>PERCENTAGE OF COMPLIANCE (%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="55">
+  <si>
+    <t>REPORT ON
+STATEMENT OF ASSETS, LIABILITY AND NET WORTH (SALN) FOR CY 2023</t>
+  </si>
+  <si>
+    <t>Region</t>
+  </si>
+  <si>
+    <t>Name of Agency</t>
+  </si>
+  <si>
+    <t>Name of Office</t>
+  </si>
+  <si>
+    <t>Total No. of Employees</t>
+  </si>
+  <si>
+    <t>PERMANENT</t>
+  </si>
+  <si>
+    <t>COTERMINOUS</t>
+  </si>
+  <si>
+    <t>CASUAL</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>:</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>NATIONAL IRRIGATION ADMINISTRATION</t>
+  </si>
+  <si>
+    <t>PANGASINAN IRRIGATION MANAGEMENT OFFICE</t>
   </si>
   <si>
     <t>NO.</t>
@@ -49,18 +71,6 @@
     <t>REMARKS</t>
   </si>
   <si>
-    <t>PANGASINAN IMO</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Employees who submitted duly accomplished SALN</t>
-  </si>
-  <si>
-    <t>PERMANENT</t>
-  </si>
-  <si>
     <t>ABALOS, ARNEL  SALAZAR</t>
   </si>
   <si>
@@ -91,9 +101,6 @@
     <t>GAJO, ROSIE</t>
   </si>
   <si>
-    <t>COTERMINOUS</t>
-  </si>
-  <si>
     <t>JULIAN, JONALYN  ACOBA</t>
   </si>
   <si>
@@ -112,9 +119,6 @@
     <t>Spouse is the Filer</t>
   </si>
   <si>
-    <t>CASUAL</t>
-  </si>
-  <si>
     <t>AGUDERA, SHERRY  CRUZ</t>
   </si>
   <si>
@@ -136,34 +140,46 @@
     <t>ENGINEERING ASSISTANT A</t>
   </si>
   <si>
+    <t>BAUTISTA, NELLIE  LANDINGIN</t>
+  </si>
+  <si>
+    <t>IRRIGATOR'S DEVELOPMENT OFFICER B</t>
+  </si>
+  <si>
+    <t>GARCIA, EMILIO JR. CATUNGAL</t>
+  </si>
+  <si>
     <t>JACINTO, ALJOHN  PEÑAFLOR</t>
   </si>
   <si>
     <t>INDUSTRIAL RELATIONS MANAGEMENT OFFICER C</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>NONE</t>
-  </si>
-  <si>
     <t>Prepared by:</t>
   </si>
   <si>
-    <t>Certified Correct:</t>
+    <t>Reviewed by:</t>
+  </si>
+  <si>
+    <t>EDNA V. NANALES</t>
   </si>
   <si>
     <t>FRANCIS CARLO L. ZACARIAS</t>
   </si>
   <si>
+    <t>Data Encoder</t>
+  </si>
+  <si>
+    <t>Industrial Relations Development/Management Officer C</t>
+  </si>
+  <si>
+    <t>Approved by:</t>
+  </si>
+  <si>
     <t>ENGR. JOHN N. MOLANO</t>
   </si>
   <si>
-    <t>Industrial Relations Development/Management Officer C</t>
-  </si>
-  <si>
-    <t>Acting Division Manager</t>
+    <t>Acting Division Manager, Pangasinan IMO</t>
   </si>
 </sst>
 </file>
@@ -193,6 +209,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Cambria"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="9"/>
       <color theme="1"/>
       <name val="Cambria"/>
@@ -211,13 +234,6 @@
       <name val="Cambria"/>
       <family val="2"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Cambria"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -227,11 +243,20 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="double">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -254,7 +279,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -263,22 +288,27 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -578,27 +608,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N30"/>
+  <dimension ref="A1:J43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" style="1" customWidth="1"/>
-    <col min="2" max="4" width="13.5703125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="4.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="15" style="2" customWidth="1"/>
-    <col min="8" max="8" width="3.7109375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="4.42578125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.28515625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="16.7109375" style="2" customWidth="1"/>
-    <col min="12" max="12" width="11.5703125" style="2" customWidth="1"/>
-    <col min="13" max="13" width="5" style="2" customWidth="1"/>
-    <col min="14" max="14" width="20.140625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="15" style="2" customWidth="1"/>
+    <col min="4" max="4" width="3.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="4.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="5" style="1" customWidth="1"/>
+    <col min="10" max="10" width="20.140625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="41.25" customHeight="1">
+    <row r="1" spans="1:10" ht="41.25" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -611,509 +639,476 @@
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-    </row>
-    <row r="2" spans="1:14" ht="57.75" customHeight="1">
-      <c r="A2" s="4" t="s">
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="D3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="D6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="B7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="D7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="B8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4" t="s">
+      <c r="D8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="B9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4" t="s">
+      <c r="D9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="B10" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="D10" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" ht="26.25" customHeight="1">
-      <c r="A3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="5">
-        <v>10</v>
-      </c>
-      <c r="C3" s="5">
-        <v>10</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="4" t="s">
+      <c r="F10" s="6">
         <v>12</v>
       </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="7" t="s">
+    </row>
+    <row r="12" spans="1:10" ht="45.75" customHeight="1">
+      <c r="A12" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="5">
-        <v>1</v>
-      </c>
-      <c r="F5" s="6" t="s">
+      <c r="B12" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6" t="s">
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="N5" s="8"/>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="5">
-        <v>2</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="N6" s="8"/>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="5">
-        <v>3</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="N7" s="8"/>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="5">
-        <v>4</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="N8" s="8"/>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-    </row>
-    <row r="10" spans="1:14">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="5">
-        <v>1</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="N10" s="8"/>
-    </row>
-    <row r="11" spans="1:14">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="5">
-        <v>2</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="N11" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
-    </row>
-    <row r="13" spans="1:14">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="5">
+      <c r="I12" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="9">
         <v>1</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="B14" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J14" s="9"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="9">
+        <v>2</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="J15" s="9"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="9">
+        <v>3</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="J16" s="9"/>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="9">
+        <v>4</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="J17" s="9"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="9">
+        <v>1</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="J19" s="9"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="9">
+        <v>2</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6" t="s">
+      <c r="J20" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="N13" s="8"/>
-    </row>
-    <row r="14" spans="1:14">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="5">
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="9">
+        <v>1</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="J22" s="9"/>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="9">
         <v>2</v>
       </c>
-      <c r="F14" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="8" t="s">
+      <c r="B23" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="N14" s="8"/>
-    </row>
-    <row r="15" spans="1:14">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="5">
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="J23" s="9"/>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="9">
         <v>3</v>
       </c>
-      <c r="F15" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="N15" s="8"/>
-    </row>
-    <row r="16" spans="1:14">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="5">
+      <c r="B24" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="J24" s="9"/>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="9">
         <v>4</v>
       </c>
-      <c r="F16" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6" t="s">
+      <c r="B25" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="J25" s="9"/>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="9">
+        <v>5</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="N16" s="8"/>
-    </row>
-    <row r="19" spans="1:14" ht="57.75" customHeight="1">
-      <c r="A19" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F19" s="4" t="s">
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="J26" s="9"/>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="9">
         <v>6</v>
       </c>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="N19" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" ht="26.25" customHeight="1">
-      <c r="A20" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
-    </row>
-    <row r="21" spans="1:14">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
-      <c r="N21" s="4"/>
-    </row>
-    <row r="24" spans="1:14">
-      <c r="B24" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="J24" s="9" t="s">
+      <c r="B27" s="10" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="29" spans="1:14">
-      <c r="B29" s="10" t="s">
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="J29" s="10" t="s">
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="J27" s="9"/>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="11" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="30" spans="1:14">
-      <c r="B30" s="9" t="s">
+      <c r="G29" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="J30" s="9" t="s">
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="12" t="s">
         <v>48</v>
       </c>
+      <c r="G34" s="12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="G35" s="13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="13" t="s">
+        <v>54</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="35">
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="I2:L2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="E4:N4"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="I5:L5"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="I6:L6"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="E9:N9"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="I10:L10"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="E12:N12"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="I13:L13"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="I14:L14"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="I15:L15"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="I16:L16"/>
-    <mergeCell ref="A4:A16"/>
-    <mergeCell ref="B4:B16"/>
-    <mergeCell ref="C4:C16"/>
-    <mergeCell ref="D4:D16"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I19:L19"/>
-    <mergeCell ref="E20:N20"/>
-    <mergeCell ref="E21:N21"/>
+  <mergeCells count="30">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="A13:J13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:H15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:H16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:H17"/>
+    <mergeCell ref="A18:J18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:H19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="A21:J21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:H23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:H27"/>
   </mergeCells>
-  <pageMargins left="0.13" right="0.13" top="1.1" bottom="1.08" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="92" orientation="landscape"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.13" right="0.13" top="1.3" bottom="1.21" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="94" orientation="portrait"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;G</oddHeader>
     <oddFooter>&amp;R&amp;G</oddFooter>
